--- a/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1ua411o7hy_一口气看完刺客信条全系列8万字爽看15年刺客故事_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1ua411o7hy_一口气看完刺客信条全系列8万字爽看15年刺客故事_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="198">
   <si>
     <t>bvid</t>
   </si>
@@ -46,109 +46,220 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1ua411o7hy</t>
   </si>
   <si>
-    <t>390433544</t>
-  </si>
-  <si>
     <t>24号爆炸物</t>
   </si>
   <si>
+    <t>青林望月</t>
+  </si>
+  <si>
+    <t>河西王叔叔</t>
+  </si>
+  <si>
+    <t>高贵的淡紫色</t>
+  </si>
+  <si>
+    <t>ㅇ哆啦ㅇ</t>
+  </si>
+  <si>
+    <t>三寸_人间</t>
+  </si>
+  <si>
+    <t>遊生夢死--die</t>
+  </si>
+  <si>
+    <t>北方残躯</t>
+  </si>
+  <si>
+    <t>昆仑第二金仙</t>
+  </si>
+  <si>
+    <t>丨三横</t>
+  </si>
+  <si>
+    <t>_梦付千秋-星垂野_</t>
+  </si>
+  <si>
+    <t>Tonyupupup</t>
+  </si>
+  <si>
+    <t>啧啧lun</t>
+  </si>
+  <si>
+    <t>22世纪的未来</t>
+  </si>
+  <si>
+    <t>星空开阔</t>
+  </si>
+  <si>
+    <t>注册为看杰伦的月月鸟</t>
+  </si>
+  <si>
+    <t>闪翼银座</t>
+  </si>
+  <si>
+    <t>PHANToMeo</t>
+  </si>
+  <si>
+    <t>南方的冰宫</t>
+  </si>
+  <si>
+    <t>豆子派对策划师</t>
+  </si>
+  <si>
+    <t>wengtr</t>
+  </si>
+  <si>
+    <t>小心爱i</t>
+  </si>
+  <si>
+    <t>一眼丁真leek畜</t>
+  </si>
+  <si>
+    <t>tEKh1noLM</t>
+  </si>
+  <si>
+    <t>蜩螳</t>
+  </si>
+  <si>
+    <t>乎啦乎拉乎</t>
+  </si>
+  <si>
+    <t>229135394</t>
+  </si>
+  <si>
+    <t>水晶中的水晶</t>
+  </si>
+  <si>
+    <t>芥前辈总是昏昏沉沉</t>
+  </si>
+  <si>
+    <t>YNIM-</t>
+  </si>
+  <si>
+    <t>无名2354qer</t>
+  </si>
+  <si>
+    <t>ccbil</t>
+  </si>
+  <si>
+    <t>我真的叫张三啊</t>
+  </si>
+  <si>
+    <t>斯彼得沃特斯塔</t>
+  </si>
+  <si>
+    <t>鞋子的贤子</t>
+  </si>
+  <si>
+    <t>Beryl0412</t>
+  </si>
+  <si>
+    <t>忠厚老实的阿水</t>
+  </si>
+  <si>
+    <t>者行天2019</t>
+  </si>
+  <si>
+    <t>重重影</t>
+  </si>
+  <si>
+    <t>账号已注销</t>
+  </si>
+  <si>
+    <t>心愿丷</t>
+  </si>
+  <si>
+    <t>阳光下的猫猫猫猫猫</t>
+  </si>
+  <si>
+    <t>停止现实进展</t>
+  </si>
+  <si>
+    <t>pHk弯弯绕绕</t>
+  </si>
+  <si>
+    <t>他名字写在水上</t>
+  </si>
+  <si>
+    <t>kIVAT_</t>
+  </si>
+  <si>
+    <t>Eiko_子兽</t>
+  </si>
+  <si>
+    <t>指挥家的05号机</t>
+  </si>
+  <si>
+    <t>严辉村水质检测人员</t>
+  </si>
+  <si>
+    <t>范仲淹的粉丝</t>
+  </si>
+  <si>
+    <t>喵速五粒米ye</t>
+  </si>
+  <si>
+    <t>虾可以在一个锅里生活</t>
+  </si>
+  <si>
+    <t>RDAJ</t>
+  </si>
+  <si>
+    <t>极光小欧</t>
+  </si>
+  <si>
+    <t>悠燃OL</t>
+  </si>
+  <si>
+    <t>伯格曼啤酒馆</t>
+  </si>
+  <si>
+    <t>兰纳罗猫猫</t>
+  </si>
+  <si>
+    <t>毛闯将</t>
+  </si>
+  <si>
+    <t>4K修复计划</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>刺客信条的现代穿越情节完全是败笔，只简单讲好一个时期的故事就可以了不需要铺垫的那么复杂</t>
   </si>
   <si>
-    <t>2025-03-24 00:43:43</t>
-  </si>
-  <si>
-    <t>445428769</t>
-  </si>
-  <si>
-    <t>青林望月</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
     <t>可惜只能投两个币[跪了]</t>
   </si>
   <si>
-    <t>2025-03-23 21:24:58</t>
-  </si>
-  <si>
-    <t>42959</t>
-  </si>
-  <si>
-    <t>河西王叔叔</t>
-  </si>
-  <si>
     <t>我还记得当年有个说法是天国王朝电影建模卖给了游戏组回血[笑哭]</t>
   </si>
   <si>
-    <t>2025-03-23 07:46:00</t>
-  </si>
-  <si>
-    <t>275820984</t>
-  </si>
-  <si>
-    <t>高贵的淡紫色</t>
-  </si>
-  <si>
     <t>感觉马伯庸应该没少玩 历史旁观者参与者 就是刺客信条有个完整的贯穿主线</t>
   </si>
   <si>
-    <t>2025-03-22 05:00:34</t>
-  </si>
-  <si>
-    <t>1146199587</t>
-  </si>
-  <si>
-    <t>ㅇ哆啦ㅇ</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>还有5小时玩影，来复习下。</t>
   </si>
   <si>
-    <t>2025-03-20 06:27:50</t>
-  </si>
-  <si>
-    <t>286268449</t>
-  </si>
-  <si>
-    <t>三寸_人间</t>
-  </si>
-  <si>
     <t>2025年3.18号刺客信条影发售前夕，来复习一下😊</t>
   </si>
   <si>
-    <t>2025-03-17 23:19:07</t>
-  </si>
-  <si>
-    <t>1534201860</t>
-  </si>
-  <si>
-    <t>遊生夢死--die</t>
-  </si>
-  <si>
     <t>@位於月球</t>
-  </si>
-  <si>
-    <t>2025-03-15 14:57:43</t>
-  </si>
-  <si>
-    <t>384706656</t>
-  </si>
-  <si>
-    <t>北方残躯</t>
   </si>
   <si>
     <t>总有人分不清导师和大师，是两个完全不同的概念，估计是中文翻译的锅。
@@ -160,631 +271,366 @@
 对应导师mentor的是最高大师/大团长（Grand Master）：雅克·德·莫莱、教皇罗德里戈·波吉亚、凯撒·波吉亚、启示录boss艾哈迈德、大革命boss日耳曼、雷金纳德·伯奇、海瑟姆、查尔斯·李、4代boss托雷斯、枭雄boss克劳福德、奥措·贝格。</t>
   </si>
   <si>
-    <t>2025-03-15 02:57:17</t>
-  </si>
-  <si>
-    <t>191960165</t>
-  </si>
-  <si>
-    <t>昆仑第二金仙</t>
-  </si>
-  <si>
     <t>怎么没解说那个男人</t>
   </si>
   <si>
-    <t>2025-03-11 17:52:00</t>
-  </si>
-  <si>
-    <t>31602070</t>
-  </si>
-  <si>
-    <t>丨三横</t>
-  </si>
-  <si>
     <t>2025.2.13年回来补课</t>
   </si>
   <si>
-    <t>2025-02-13 20:24:30</t>
-  </si>
-  <si>
-    <t>2097304210</t>
-  </si>
-  <si>
-    <t>_梦付千秋-星垂野_</t>
-  </si>
-  <si>
     <t>刺客信条影黑不黑人也无所谓了，我只想知道育碧怎么讲影的现代时间线</t>
   </si>
   <si>
-    <t>2025-02-11 13:38:49</t>
-  </si>
-  <si>
-    <t>66816186</t>
-  </si>
-  <si>
-    <t>Tonyupupup</t>
-  </si>
-  <si>
     <t>2025.2.2 故事还在继续</t>
   </si>
   <si>
-    <t>2025-02-02 16:59:04</t>
-  </si>
-  <si>
-    <t>2960670</t>
-  </si>
-  <si>
-    <t>啧啧lun</t>
-  </si>
-  <si>
     <t>bgm声音太大了</t>
   </si>
   <si>
-    <t>2025-01-30 23:02:46</t>
-  </si>
-  <si>
-    <t>256936741</t>
-  </si>
-  <si>
-    <t>22世纪的未来</t>
-  </si>
-  <si>
     <t>如果万事皆虚，我们应该相信什么？相信你正在做的事情</t>
   </si>
   <si>
-    <t>2025-01-21 07:40:18</t>
-  </si>
-  <si>
-    <t>687085581</t>
-  </si>
-  <si>
-    <t>星空开阔</t>
-  </si>
-  <si>
     <t>刺客伟大，但结局暗淡</t>
   </si>
   <si>
-    <t>2025-01-19 11:09:59</t>
-  </si>
-  <si>
-    <t>390286840</t>
-  </si>
-  <si>
-    <t>注册为看杰伦的月月鸟</t>
-  </si>
-  <si>
     <t>请问能否出一个思维导图那样的剧情线，可以直观一点看的呀[笑哭]这视频太长了记不住</t>
   </si>
   <si>
-    <t>2025-01-17 14:39:52</t>
-  </si>
-  <si>
-    <t>34022012</t>
-  </si>
-  <si>
-    <t>闪翼银座</t>
-  </si>
-  <si>
     <t>辛巴姆的心路历程你没讲啊</t>
   </si>
   <si>
-    <t>2025-01-04 20:00:21</t>
-  </si>
-  <si>
-    <t>86459124</t>
-  </si>
-  <si>
-    <t>PHANToMeo</t>
-  </si>
-  <si>
     <t>剧情，启动</t>
   </si>
   <si>
-    <t>2025-01-04 00:26:52</t>
-  </si>
-  <si>
-    <t>3546704848620173</t>
-  </si>
-  <si>
-    <t>南方的冰宫</t>
-  </si>
-  <si>
     <t>因为联动来补个剧情（等放假想买大革命来着，好巧[笑哭]）</t>
   </si>
   <si>
-    <t>2025-01-03 23:05:56</t>
-  </si>
-  <si>
-    <t>1017644806</t>
-  </si>
-  <si>
-    <t>豆子派对策划师</t>
-  </si>
-  <si>
     <t>和1999联动来这里补了</t>
   </si>
   <si>
-    <t>2025-01-03 21:17:41</t>
-  </si>
-  <si>
-    <t>9132079</t>
-  </si>
-  <si>
-    <t>wengtr</t>
-  </si>
-  <si>
     <t>刺客信条最出圈的部分是美术和对历史的还原。希望游科能做一部这样的作品出来，把中华的美术建筑历史文化呈现出来</t>
   </si>
   <si>
-    <t>2024-12-27 15:58:47</t>
-  </si>
-  <si>
-    <t>296060494</t>
-  </si>
-  <si>
-    <t>小心爱i</t>
-  </si>
-  <si>
     <t>怎么还有说，记不住名字的。特码的你们玩游戏不看剧情吗[疑惑]</t>
   </si>
   <si>
-    <t>2024-12-26 13:08:39</t>
-  </si>
-  <si>
-    <t>1003806558</t>
-  </si>
-  <si>
-    <t>一眼丁真leek畜</t>
-  </si>
-  <si>
     <t>弹幕这种不懂装懂的纱布真影响观感</t>
   </si>
   <si>
-    <t>2024-12-22 20:29:45</t>
-  </si>
-  <si>
-    <t>4492951</t>
-  </si>
-  <si>
-    <t>tEKh1noLM</t>
-  </si>
-  <si>
     <t>up太厉害了，三连支持！</t>
   </si>
   <si>
-    <t>2024-12-19 19:28:49</t>
-  </si>
-  <si>
-    <t>392730478</t>
-  </si>
-  <si>
-    <t>蜩螳</t>
-  </si>
-  <si>
     <t>我其实觉得大革命应该有一个亚诺找到雪姨的dlc 不然意难平的一</t>
   </si>
   <si>
-    <t>2024-12-18 17:25:48</t>
-  </si>
-  <si>
-    <t>441579701</t>
-  </si>
-  <si>
-    <t>乎啦乎拉乎</t>
-  </si>
-  <si>
     <t>圣殿骑士刚改组的时候不是信仰jd教嘛，怎么后来还是偷偷信奉洞察之父？那艾沃尔和那个国王不白干了吗</t>
   </si>
   <si>
-    <t>2024-12-17 01:42:55</t>
-  </si>
-  <si>
-    <t>229135394</t>
-  </si>
-  <si>
     <t>每天饭点看一点，花了一星期终于看完了，才发现竟然是两年前的视频[哦呼]</t>
   </si>
   <si>
-    <t>2024-12-14 20:09:40</t>
-  </si>
-  <si>
-    <t>3954740</t>
-  </si>
-  <si>
-    <t>水晶中的水晶</t>
-  </si>
-  <si>
     <t>谁能想到刺客信条最新变成黑人喝日本人</t>
   </si>
   <si>
-    <t>2024-12-14 19:58:28</t>
-  </si>
-  <si>
-    <t>347062738</t>
-  </si>
-  <si>
-    <t>芥前辈总是昏昏沉沉</t>
-  </si>
-  <si>
     <t>说是战争，我怎么感觉全是刺客在库库挨揍呢</t>
   </si>
   <si>
-    <t>2024-12-09 19:26:54</t>
-  </si>
-  <si>
-    <t>524309435</t>
-  </si>
-  <si>
-    <t>YNIM-</t>
-  </si>
-  <si>
     <t>啥时候把幻境加进去啊</t>
   </si>
   <si>
-    <t>2024-12-09 11:02:24</t>
-  </si>
-  <si>
-    <t>523050805</t>
-  </si>
-  <si>
-    <t>无名2354qer</t>
-  </si>
-  <si>
     <t>【苦艾酒【刺客信条】万字讲述系列初代故事，总有些细节是你不知道的-哔哩哔哩】 https://b23.tv/wlzLCcP</t>
   </si>
   <si>
-    <t>2024-12-08 06:25:43</t>
-  </si>
-  <si>
-    <t>31104567</t>
-  </si>
-  <si>
-    <t>ccbil</t>
-  </si>
-  <si>
     <t>[给心心]</t>
   </si>
   <si>
-    <t>2024-12-08 02:21:35</t>
-  </si>
-  <si>
-    <t>505517778</t>
-  </si>
-  <si>
-    <t>我真的叫张三啊</t>
-  </si>
-  <si>
     <t>up讲得太好了，结合各种历史事件，文科生狂喜</t>
   </si>
   <si>
-    <t>2024-12-07 21:58:08</t>
-  </si>
-  <si>
-    <t>443093844</t>
-  </si>
-  <si>
-    <t>斯彼得沃特斯塔</t>
-  </si>
-  <si>
     <t>牛逼</t>
   </si>
   <si>
-    <t>2024-12-02 22:31:40</t>
-  </si>
-  <si>
-    <t>36073967</t>
-  </si>
-  <si>
-    <t>鞋子的贤子</t>
-  </si>
-  <si>
     <t>我还一直以为阿泰尔是艾吉奥祖先…</t>
   </si>
   <si>
-    <t>2024-11-29 12:43:53</t>
-  </si>
-  <si>
-    <t>509301197</t>
-  </si>
-  <si>
-    <t>Beryl0412</t>
-  </si>
-  <si>
     <t>一个晚上一口气看完，过瘾</t>
   </si>
   <si>
-    <t>2024-11-26 00:49:53</t>
-  </si>
-  <si>
-    <t>43136774</t>
-  </si>
-  <si>
-    <t>忠厚老实的阿水</t>
-  </si>
-  <si>
     <t>我现在必须立刻信仰之韵！</t>
-  </si>
-  <si>
-    <t>2024-11-22 12:59:52</t>
-  </si>
-  <si>
-    <t>437476102</t>
-  </si>
-  <si>
-    <t>者行天2019</t>
   </si>
   <si>
     <t>时间线：
 奥德赛（Odyssey）→起源（Origins）→幻影（Mirage）→英灵殿（Valhalla）→1→2→兄弟会（Brotherhood）→启事录（Revelations）→黑旗（Blackflag）→叛变（Rogue）→3→大革命（Unity）→枭雄（Syndicate）</t>
   </si>
   <si>
+    <t>牛掰</t>
+  </si>
+  <si>
+    <t>有没有人和我一样真的很喜欢这种创造的新的世界的游戏系列 我觉得这类游戏里刺客信条是做的最好的</t>
+  </si>
+  <si>
+    <t>古代的故事只是给大家游玩这个人的，重要的剧情都是现代，一切都是围绕现代展开的</t>
+  </si>
+  <si>
+    <t>五部电影应该包括《血系》《权势》《余烬》《恶魔之矛》以及《刺客信条》前4部都是微电影。</t>
+  </si>
+  <si>
+    <t>就是把整个外国历史做成了游戏</t>
+  </si>
+  <si>
+    <t>9分40秒时的音乐是什么呀哪位兄弟知道谢谢</t>
+  </si>
+  <si>
+    <t>9分52秒是哪首音乐求各位兄弟告知谢谢！</t>
+  </si>
+  <si>
+    <t>最近才入坑《刺客信条》，买了游戏还没开始打，想先看看视频了解一下设定。以前没入坑时，我一直以为它就是那种很简单的上级指派目标让刺客去杀，看了这个视频之后才发现它的背景设定这么复杂，几乎就是一部从古至今的西方史。看视频还顺便给我补习历史了。</t>
+  </si>
+  <si>
+    <t>阿泰尔为主角的血统为啥没讲啊？记得以前在老手机上玩过模拟器版的，讲阿泰尔去到了塞浦路斯</t>
+  </si>
+  <si>
+    <t>其实在育碧其他游戏里面也会有一些刺客信条的信息，就比如看门狗三里面有一个刺客的支线就是关于枭雄兄妹的，也算一个致敬吧</t>
+  </si>
+  <si>
+    <t>最喜欢枭雄，这世界上还有哪个游戏能把贝尔、达尔文、南丁格尔、狄更斯、马克思这些人集中到一个世界里啊[笑哭]更别说还能爬大笨钟、伦敦塔、英格兰银行这些地方，一直都舍不得删。</t>
+  </si>
+  <si>
+    <t>这才是真正的刺客信条，现在的魔法攻击太出戏了</t>
+  </si>
+  <si>
+    <t>请问，三螺旋DNA怎么复制</t>
+  </si>
+  <si>
+    <t>不会吧不会吧，不会人头脑简单四肢不发达还能当刺客吧，不会这个人就在法国吧[星星眼]</t>
+  </si>
+  <si>
+    <t>目前只玩过奥德赛，神话三部曲是不是新人最能接受的画面啊，毕竟最早点的游戏画质现在看已经太模糊了</t>
+  </si>
+  <si>
+    <t>永远都有人系列</t>
+  </si>
+  <si>
+    <t>@REOL丶丶丶 好看爱看</t>
+  </si>
+  <si>
+    <t>对于只玩过一两部游戏的我，听着前面那一大段真的云里雾里啊，什么上古秩序，各个势力呀，还有一大堆人名[笑哭]听着好乱呐，一直到兄弟会那里，我才开始理清后面出现的各个势力</t>
+  </si>
+  <si>
+    <t>高科技高度发达生物改造基因创造人类，想起隔壁战锤的古圣了</t>
+  </si>
+  <si>
+    <t>我才看到18分钟就已经分不清谁是谁了。。</t>
+  </si>
+  <si>
+    <t>刺客这么厉害，为什么圣殿骑士还存在啊，把上层全杀完不久瓦解了？</t>
+  </si>
+  <si>
+    <t>不是，艾沃尔结局是什么都不讲？</t>
+  </si>
+  <si>
+    <t>2025-03-24 00:43:43</t>
+  </si>
+  <si>
+    <t>2025-03-23 21:24:58</t>
+  </si>
+  <si>
+    <t>2025-03-23 07:46:00</t>
+  </si>
+  <si>
+    <t>2025-03-22 05:00:34</t>
+  </si>
+  <si>
+    <t>2025-03-20 06:27:50</t>
+  </si>
+  <si>
+    <t>2025-03-17 23:19:07</t>
+  </si>
+  <si>
+    <t>2025-03-15 14:57:43</t>
+  </si>
+  <si>
+    <t>2025-03-15 02:57:17</t>
+  </si>
+  <si>
+    <t>2025-03-11 17:52:00</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:24:30</t>
+  </si>
+  <si>
+    <t>2025-02-11 13:38:49</t>
+  </si>
+  <si>
+    <t>2025-02-02 16:59:04</t>
+  </si>
+  <si>
+    <t>2025-01-30 23:02:46</t>
+  </si>
+  <si>
+    <t>2025-01-21 07:40:18</t>
+  </si>
+  <si>
+    <t>2025-01-19 11:09:59</t>
+  </si>
+  <si>
+    <t>2025-01-17 14:39:52</t>
+  </si>
+  <si>
+    <t>2025-01-04 20:00:21</t>
+  </si>
+  <si>
+    <t>2025-01-04 00:26:52</t>
+  </si>
+  <si>
+    <t>2025-01-03 23:05:56</t>
+  </si>
+  <si>
+    <t>2025-01-03 21:17:41</t>
+  </si>
+  <si>
+    <t>2024-12-27 15:58:47</t>
+  </si>
+  <si>
+    <t>2024-12-26 13:08:39</t>
+  </si>
+  <si>
+    <t>2024-12-22 20:29:45</t>
+  </si>
+  <si>
+    <t>2024-12-19 19:28:49</t>
+  </si>
+  <si>
+    <t>2024-12-18 17:25:48</t>
+  </si>
+  <si>
+    <t>2024-12-17 01:42:55</t>
+  </si>
+  <si>
+    <t>2024-12-14 20:09:40</t>
+  </si>
+  <si>
+    <t>2024-12-14 19:58:28</t>
+  </si>
+  <si>
+    <t>2024-12-09 19:26:54</t>
+  </si>
+  <si>
+    <t>2024-12-09 11:02:24</t>
+  </si>
+  <si>
+    <t>2024-12-08 06:25:43</t>
+  </si>
+  <si>
+    <t>2024-12-08 02:21:35</t>
+  </si>
+  <si>
+    <t>2024-12-07 21:58:08</t>
+  </si>
+  <si>
+    <t>2024-12-02 22:31:40</t>
+  </si>
+  <si>
+    <t>2024-11-29 12:43:53</t>
+  </si>
+  <si>
+    <t>2024-11-26 00:49:53</t>
+  </si>
+  <si>
+    <t>2024-11-22 12:59:52</t>
+  </si>
+  <si>
     <t>2024-11-18 13:56:53</t>
   </si>
   <si>
-    <t>701708251</t>
-  </si>
-  <si>
-    <t>重重影</t>
-  </si>
-  <si>
-    <t>牛掰</t>
-  </si>
-  <si>
     <t>2024-11-14 11:21:30</t>
   </si>
   <si>
-    <t>3546779165395451</t>
-  </si>
-  <si>
-    <t>账号已注销</t>
-  </si>
-  <si>
-    <t>有没有人和我一样真的很喜欢这种创造的新的世界的游戏系列 我觉得这类游戏里刺客信条是做的最好的</t>
-  </si>
-  <si>
     <t>2024-11-11 17:19:49</t>
   </si>
   <si>
-    <t>5731229</t>
-  </si>
-  <si>
-    <t>心愿丷</t>
-  </si>
-  <si>
-    <t>古代的故事只是给大家游玩这个人的，重要的剧情都是现代，一切都是围绕现代展开的</t>
-  </si>
-  <si>
     <t>2024-11-04 21:18:10</t>
   </si>
   <si>
-    <t>106211469</t>
-  </si>
-  <si>
-    <t>阳光下的猫猫猫猫猫</t>
-  </si>
-  <si>
-    <t>五部电影应该包括《血系》《权势》《余烬》《恶魔之矛》以及《刺客信条》前4部都是微电影。</t>
-  </si>
-  <si>
     <t>2024-11-02 23:15:12</t>
   </si>
   <si>
-    <t>29246576</t>
-  </si>
-  <si>
-    <t>停止现实进展</t>
-  </si>
-  <si>
-    <t>就是把整个外国历史做成了游戏</t>
-  </si>
-  <si>
     <t>2024-10-27 01:10:38</t>
   </si>
   <si>
-    <t>19404907</t>
-  </si>
-  <si>
-    <t>pHk弯弯绕绕</t>
-  </si>
-  <si>
-    <t>9分40秒时的音乐是什么呀哪位兄弟知道谢谢</t>
-  </si>
-  <si>
     <t>2024-10-25 10:46:43</t>
   </si>
   <si>
-    <t>9分52秒是哪首音乐求各位兄弟告知谢谢！</t>
-  </si>
-  <si>
     <t>2024-10-24 22:23:21</t>
   </si>
   <si>
-    <t>43802904</t>
-  </si>
-  <si>
-    <t>他名字写在水上</t>
-  </si>
-  <si>
-    <t>最近才入坑《刺客信条》，买了游戏还没开始打，想先看看视频了解一下设定。以前没入坑时，我一直以为它就是那种很简单的上级指派目标让刺客去杀，看了这个视频之后才发现它的背景设定这么复杂，几乎就是一部从古至今的西方史。看视频还顺便给我补习历史了。</t>
-  </si>
-  <si>
     <t>2024-10-24 17:03:19</t>
   </si>
   <si>
-    <t>298677988</t>
-  </si>
-  <si>
-    <t>kIVAT_</t>
-  </si>
-  <si>
-    <t>阿泰尔为主角的血统为啥没讲啊？记得以前在老手机上玩过模拟器版的，讲阿泰尔去到了塞浦路斯</t>
-  </si>
-  <si>
     <t>2024-10-11 19:37:16</t>
   </si>
   <si>
-    <t>426092440</t>
-  </si>
-  <si>
-    <t>Eiko_子兽</t>
-  </si>
-  <si>
-    <t>其实在育碧其他游戏里面也会有一些刺客信条的信息，就比如看门狗三里面有一个刺客的支线就是关于枭雄兄妹的，也算一个致敬吧</t>
-  </si>
-  <si>
     <t>2024-10-07 00:09:58</t>
   </si>
   <si>
-    <t>18103539</t>
-  </si>
-  <si>
-    <t>指挥家的05号机</t>
-  </si>
-  <si>
-    <t>最喜欢枭雄，这世界上还有哪个游戏能把贝尔、达尔文、南丁格尔、狄更斯、马克思这些人集中到一个世界里啊[笑哭]更别说还能爬大笨钟、伦敦塔、英格兰银行这些地方，一直都舍不得删。</t>
-  </si>
-  <si>
     <t>2024-10-06 00:34:21</t>
   </si>
   <si>
-    <t>387988076</t>
-  </si>
-  <si>
-    <t>严辉村水质检测人员</t>
-  </si>
-  <si>
-    <t>这才是真正的刺客信条，现在的魔法攻击太出戏了</t>
-  </si>
-  <si>
     <t>2024-10-05 12:07:22</t>
   </si>
   <si>
-    <t>89157895</t>
-  </si>
-  <si>
-    <t>范仲淹的粉丝</t>
-  </si>
-  <si>
-    <t>请问，三螺旋DNA怎么复制</t>
-  </si>
-  <si>
     <t>2024-10-05 10:08:46</t>
   </si>
   <si>
-    <t>202637982</t>
-  </si>
-  <si>
-    <t>喵速五粒米ye</t>
-  </si>
-  <si>
-    <t>不会吧不会吧，不会人头脑简单四肢不发达还能当刺客吧，不会这个人就在法国吧[星星眼]</t>
-  </si>
-  <si>
     <t>2024-10-03 21:50:11</t>
   </si>
   <si>
-    <t>695364788</t>
-  </si>
-  <si>
-    <t>虾可以在一个锅里生活</t>
-  </si>
-  <si>
-    <t>目前只玩过奥德赛，神话三部曲是不是新人最能接受的画面啊，毕竟最早点的游戏画质现在看已经太模糊了</t>
-  </si>
-  <si>
     <t>2024-10-02 03:42:47</t>
   </si>
   <si>
-    <t>53114891</t>
-  </si>
-  <si>
-    <t>RDAJ</t>
-  </si>
-  <si>
-    <t>永远都有人系列</t>
-  </si>
-  <si>
     <t>2024-09-30 21:37:57</t>
   </si>
   <si>
-    <t>472661883</t>
-  </si>
-  <si>
-    <t>极光小欧</t>
-  </si>
-  <si>
-    <t>@REOL丶丶丶 好看爱看</t>
-  </si>
-  <si>
     <t>2024-09-25 10:20:22</t>
   </si>
   <si>
-    <t>392678034</t>
-  </si>
-  <si>
-    <t>悠燃OL</t>
-  </si>
-  <si>
-    <t>对于只玩过一两部游戏的我，听着前面那一大段真的云里雾里啊，什么上古秩序，各个势力呀，还有一大堆人名[笑哭]听着好乱呐，一直到兄弟会那里，我才开始理清后面出现的各个势力</t>
-  </si>
-  <si>
     <t>2024-09-25 06:53:54</t>
   </si>
   <si>
-    <t>27621182</t>
-  </si>
-  <si>
-    <t>伯格曼啤酒馆</t>
-  </si>
-  <si>
-    <t>高科技高度发达生物改造基因创造人类，想起隔壁战锤的古圣了</t>
-  </si>
-  <si>
     <t>2024-09-23 10:03:23</t>
   </si>
   <si>
-    <t>2079968037</t>
-  </si>
-  <si>
-    <t>兰纳罗猫猫</t>
-  </si>
-  <si>
-    <t>我才看到18分钟就已经分不清谁是谁了。。</t>
-  </si>
-  <si>
     <t>2024-09-21 11:35:06</t>
   </si>
   <si>
-    <t>13427527</t>
-  </si>
-  <si>
-    <t>毛闯将</t>
-  </si>
-  <si>
-    <t>刺客这么厉害，为什么圣殿骑士还存在啊，把上层全杀完不久瓦解了？</t>
-  </si>
-  <si>
     <t>2024-09-20 20:05:20</t>
   </si>
   <si>
-    <t>3546581917764179</t>
-  </si>
-  <si>
-    <t>4K修复计划</t>
-  </si>
-  <si>
-    <t>不是，艾沃尔结局是什么都不讲？</t>
-  </si>
-  <si>
     <t>2024-09-12 20:44:49</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t>积极</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -800,7 +646,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -808,12 +654,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,1962 +972,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>258536455472</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>390433544</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>257714513361</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>445428769</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>257655327425</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>42959</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257566346993</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>275820984</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>257410258913</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>1146199587</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>258038483088</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
+      <c r="C7">
+        <v>286268449</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>257039443985</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
+      <c r="C8">
+        <v>1534201860</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>257005087265</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
+      <c r="C9">
+        <v>384706656</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>256734053985</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
+      <c r="C10">
+        <v>191960165</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>254594347041</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
+      <c r="C11">
+        <v>31602070</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>255046862032</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
+      <c r="C12">
+        <v>2097304210</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>253539778609</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
+      <c r="C13">
+        <v>66816186</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>253300626593</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
+      <c r="C14">
+        <v>2960670</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>252970901808</v>
       </c>
-      <c r="C15" t="s">
-        <v>67</v>
+      <c r="C15">
+        <v>256936741</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>252204426177</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
+      <c r="C16">
+        <v>687085581</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>252623500208</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
+      <c r="C17">
+        <v>390286840</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>251501499936</v>
       </c>
-      <c r="C18" t="s">
-        <v>79</v>
+      <c r="C18">
+        <v>34022012</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>251436612672</v>
       </c>
-      <c r="C19" t="s">
-        <v>83</v>
+      <c r="C19">
+        <v>86459124</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>250904028161</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
+      <c r="C20">
+        <v>3546704848620173</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>251420437648</v>
       </c>
-      <c r="C21" t="s">
-        <v>91</v>
+      <c r="C21">
+        <v>1017644806</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21">
         <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>250287741201</v>
       </c>
-      <c r="C22" t="s">
-        <v>95</v>
+      <c r="C22">
+        <v>9132079</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>250197868993</v>
       </c>
-      <c r="C23" t="s">
-        <v>99</v>
+      <c r="C23">
+        <v>296060494</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>249913796129</v>
       </c>
-      <c r="C24" t="s">
-        <v>103</v>
+      <c r="C24">
+        <v>1003806558</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I24">
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>249658364753</v>
       </c>
-      <c r="C25" t="s">
-        <v>107</v>
+      <c r="C25">
+        <v>4492951</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>249567617089</v>
       </c>
-      <c r="C26" t="s">
-        <v>111</v>
+      <c r="C26">
+        <v>392730478</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>249891987424</v>
       </c>
-      <c r="C27" t="s">
-        <v>115</v>
+      <c r="C27">
+        <v>441579701</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>249245062417</v>
       </c>
-      <c r="C28" t="s">
-        <v>119</v>
+      <c r="C28">
+        <v>229135394</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>249685309824</v>
       </c>
-      <c r="C29" t="s">
-        <v>122</v>
+      <c r="C29">
+        <v>3954740</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>249250757936</v>
       </c>
-      <c r="C30" t="s">
-        <v>126</v>
+      <c r="C30">
+        <v>347062738</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>249214688672</v>
       </c>
-      <c r="C31" t="s">
-        <v>130</v>
+      <c r="C31">
+        <v>524309435</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>249115270288</v>
       </c>
-      <c r="C32" t="s">
-        <v>134</v>
+      <c r="C32">
+        <v>523050805</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>248694213329</v>
       </c>
-      <c r="C33" t="s">
-        <v>138</v>
+      <c r="C33">
+        <v>31104567</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>248675774145</v>
       </c>
-      <c r="C34" t="s">
-        <v>142</v>
+      <c r="C34">
+        <v>505517778</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>248661725760</v>
       </c>
-      <c r="C35" t="s">
-        <v>146</v>
+      <c r="C35">
+        <v>443093844</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>247980235457</v>
       </c>
-      <c r="C36" t="s">
-        <v>150</v>
+      <c r="C36">
+        <v>36073967</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>247717202273</v>
       </c>
-      <c r="C37" t="s">
-        <v>154</v>
+      <c r="C37">
+        <v>509301197</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>247413470561</v>
       </c>
-      <c r="C38" t="s">
-        <v>158</v>
+      <c r="C38">
+        <v>43136774</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>247430153552</v>
       </c>
-      <c r="C39" t="s">
-        <v>162</v>
+      <c r="C39">
+        <v>437476102</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="I39">
         <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>246752487233</v>
       </c>
-      <c r="C40" t="s">
-        <v>166</v>
+      <c r="C40">
+        <v>701708251</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>246541943697</v>
       </c>
-      <c r="C41" t="s">
-        <v>170</v>
+      <c r="C41">
+        <v>3546779165395451</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>246295493632</v>
       </c>
-      <c r="C42" t="s">
-        <v>174</v>
+      <c r="C42">
+        <v>5731229</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="I42">
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>245857451921</v>
       </c>
-      <c r="C43" t="s">
-        <v>178</v>
+      <c r="C43">
+        <v>106211469</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>245308793233</v>
       </c>
-      <c r="C44" t="s">
-        <v>182</v>
+      <c r="C44">
+        <v>29246576</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>245413054624</v>
       </c>
-      <c r="C45" t="s">
-        <v>186</v>
+      <c r="C45">
+        <v>19404907</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>245386268672</v>
       </c>
-      <c r="C46" t="s">
-        <v>186</v>
+      <c r="C46">
+        <v>19404907</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>245363226336</v>
       </c>
-      <c r="C47" t="s">
-        <v>192</v>
+      <c r="C47">
+        <v>43802904</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>244167135905</v>
       </c>
-      <c r="C48" t="s">
-        <v>196</v>
+      <c r="C48">
+        <v>298677988</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>243997431776</v>
       </c>
-      <c r="C49" t="s">
-        <v>200</v>
+      <c r="C49">
+        <v>426092440</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>243911869280</v>
       </c>
-      <c r="C50" t="s">
-        <v>204</v>
+      <c r="C50">
+        <v>18103539</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="I50">
         <v>7</v>
       </c>
       <c r="J50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>243694692609</v>
       </c>
-      <c r="C51" t="s">
-        <v>208</v>
+      <c r="C51">
+        <v>387988076</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>243686914993</v>
       </c>
-      <c r="C52" t="s">
-        <v>212</v>
+      <c r="C52">
+        <v>89157895</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>243582340337</v>
       </c>
-      <c r="C53" t="s">
-        <v>216</v>
+      <c r="C53">
+        <v>202637982</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>243448970449</v>
       </c>
-      <c r="C54" t="s">
-        <v>220</v>
+      <c r="C54">
+        <v>695364788</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="I54">
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>187</v>
+      </c>
+      <c r="K54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>243355633009</v>
       </c>
-      <c r="C55" t="s">
-        <v>224</v>
+      <c r="C55">
+        <v>53114891</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="K55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>242955976769</v>
       </c>
-      <c r="C56" t="s">
-        <v>228</v>
+      <c r="C56">
+        <v>472661883</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>189</v>
+      </c>
+      <c r="K56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>243067623712</v>
       </c>
-      <c r="C57" t="s">
-        <v>232</v>
+      <c r="C57">
+        <v>392678034</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>242808148321</v>
       </c>
-      <c r="C58" t="s">
-        <v>236</v>
+      <c r="C58">
+        <v>27621182</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>191</v>
+      </c>
+      <c r="K58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>242757085760</v>
       </c>
-      <c r="C59" t="s">
-        <v>240</v>
+      <c r="C59">
+        <v>2079968037</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>242711295280</v>
       </c>
-      <c r="C60" t="s">
-        <v>244</v>
+      <c r="C60">
+        <v>13427527</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>193</v>
+      </c>
+      <c r="K60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>241969237313</v>
       </c>
-      <c r="C61" t="s">
-        <v>248</v>
+      <c r="C61">
+        <v>3546581917764179</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>251</v>
+        <v>194</v>
+      </c>
+      <c r="K61" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
